--- a/artfynd/A 9573-2023.xlsx
+++ b/artfynd/A 9573-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111525235</v>
+        <v>111525223</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>78107</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>404485.2245768273</v>
+        <v>404637.0659126193</v>
       </c>
       <c r="R2" t="n">
-        <v>6706757.647421388</v>
+        <v>6706784.214121711</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111525224</v>
+        <v>111525235</v>
       </c>
       <c r="B3" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>404619.9854206198</v>
+        <v>404485.2245768273</v>
       </c>
       <c r="R3" t="n">
-        <v>6706773.322858612</v>
+        <v>6706757.647421388</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111525226</v>
+        <v>111525233</v>
       </c>
       <c r="B4" t="n">
         <v>77515</v>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>404616.9589749529</v>
+        <v>404540.9329893424</v>
       </c>
       <c r="R4" t="n">
-        <v>6706770.937089294</v>
+        <v>6706716.233959051</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111525223</v>
+        <v>111525226</v>
       </c>
       <c r="B5" t="n">
-        <v>78107</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>404637.0659126193</v>
+        <v>404616.9589749529</v>
       </c>
       <c r="R5" t="n">
-        <v>6706784.214121711</v>
+        <v>6706770.937089294</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111525233</v>
+        <v>111525238</v>
       </c>
       <c r="B6" t="n">
         <v>77515</v>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>404540.9329893424</v>
+        <v>404495.4563026094</v>
       </c>
       <c r="R6" t="n">
-        <v>6706716.233959051</v>
+        <v>6706677.491168984</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111525238</v>
+        <v>111525224</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>404495.4563026094</v>
+        <v>404619.9854206198</v>
       </c>
       <c r="R7" t="n">
-        <v>6706677.491168984</v>
+        <v>6706773.322858612</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 9573-2023.xlsx
+++ b/artfynd/A 9573-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111525223</v>
+        <v>111525238</v>
       </c>
       <c r="B2" t="n">
-        <v>78107</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>404637.0659126193</v>
+        <v>404495.4563026094</v>
       </c>
       <c r="R2" t="n">
-        <v>6706784.214121711</v>
+        <v>6706677.491168984</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111525235</v>
+        <v>111525224</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>404485.2245768273</v>
+        <v>404619.9854206198</v>
       </c>
       <c r="R3" t="n">
-        <v>6706757.647421388</v>
+        <v>6706773.322858612</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111525226</v>
+        <v>111525223</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>78107</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>404616.9589749529</v>
+        <v>404637.0659126193</v>
       </c>
       <c r="R5" t="n">
-        <v>6706770.937089294</v>
+        <v>6706784.214121711</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111525238</v>
+        <v>111525235</v>
       </c>
       <c r="B6" t="n">
         <v>77515</v>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>404495.4563026094</v>
+        <v>404485.2245768273</v>
       </c>
       <c r="R6" t="n">
-        <v>6706677.491168984</v>
+        <v>6706757.647421388</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111525224</v>
+        <v>111525226</v>
       </c>
       <c r="B7" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>404619.9854206198</v>
+        <v>404616.9589749529</v>
       </c>
       <c r="R7" t="n">
-        <v>6706773.322858612</v>
+        <v>6706770.937089294</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 9573-2023.xlsx
+++ b/artfynd/A 9573-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111525238</v>
+        <v>111525233</v>
       </c>
       <c r="B2" t="n">
         <v>77515</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>404495.4563026094</v>
+        <v>404540.9329893424</v>
       </c>
       <c r="R2" t="n">
-        <v>6706677.491168984</v>
+        <v>6706716.233959051</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111525224</v>
+        <v>111525238</v>
       </c>
       <c r="B3" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>404619.9854206198</v>
+        <v>404495.4563026094</v>
       </c>
       <c r="R3" t="n">
-        <v>6706773.322858612</v>
+        <v>6706677.491168984</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111525233</v>
+        <v>111525235</v>
       </c>
       <c r="B4" t="n">
         <v>77515</v>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>404540.9329893424</v>
+        <v>404485.2245768273</v>
       </c>
       <c r="R4" t="n">
-        <v>6706716.233959051</v>
+        <v>6706757.647421388</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111525223</v>
+        <v>111525224</v>
       </c>
       <c r="B5" t="n">
-        <v>78107</v>
+        <v>77268</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>404637.0659126193</v>
+        <v>404619.9854206198</v>
       </c>
       <c r="R5" t="n">
-        <v>6706784.214121711</v>
+        <v>6706773.322858612</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111525235</v>
+        <v>111525226</v>
       </c>
       <c r="B6" t="n">
         <v>77515</v>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>404485.2245768273</v>
+        <v>404616.9589749529</v>
       </c>
       <c r="R6" t="n">
-        <v>6706757.647421388</v>
+        <v>6706770.937089294</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111525226</v>
+        <v>111525223</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>78107</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>404616.9589749529</v>
+        <v>404637.0659126193</v>
       </c>
       <c r="R7" t="n">
-        <v>6706770.937089294</v>
+        <v>6706784.214121711</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 9573-2023.xlsx
+++ b/artfynd/A 9573-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111525233</v>
+        <v>111525238</v>
       </c>
       <c r="B2" t="n">
         <v>77515</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>404540.9329893424</v>
+        <v>404495.4563026094</v>
       </c>
       <c r="R2" t="n">
-        <v>6706716.233959051</v>
+        <v>6706677.491168984</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111525238</v>
+        <v>111525224</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>404495.4563026094</v>
+        <v>404619.9854206198</v>
       </c>
       <c r="R3" t="n">
-        <v>6706677.491168984</v>
+        <v>6706773.322858612</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111525235</v>
+        <v>111525226</v>
       </c>
       <c r="B4" t="n">
         <v>77515</v>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>404485.2245768273</v>
+        <v>404616.9589749529</v>
       </c>
       <c r="R4" t="n">
-        <v>6706757.647421388</v>
+        <v>6706770.937089294</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111525224</v>
+        <v>111525223</v>
       </c>
       <c r="B5" t="n">
-        <v>77268</v>
+        <v>78107</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>404619.9854206198</v>
+        <v>404637.0659126193</v>
       </c>
       <c r="R5" t="n">
-        <v>6706773.322858612</v>
+        <v>6706784.214121711</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111525226</v>
+        <v>111525233</v>
       </c>
       <c r="B6" t="n">
         <v>77515</v>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>404616.9589749529</v>
+        <v>404540.9329893424</v>
       </c>
       <c r="R6" t="n">
-        <v>6706770.937089294</v>
+        <v>6706716.233959051</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111525223</v>
+        <v>111525235</v>
       </c>
       <c r="B7" t="n">
-        <v>78107</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>404637.0659126193</v>
+        <v>404485.2245768273</v>
       </c>
       <c r="R7" t="n">
-        <v>6706784.214121711</v>
+        <v>6706757.647421388</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 9573-2023.xlsx
+++ b/artfynd/A 9573-2023.xlsx
@@ -1128,7 +1128,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111525233</v>
+        <v>111525235</v>
       </c>
       <c r="B6" t="n">
         <v>77515</v>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>404540.9329893424</v>
+        <v>404485.2245768273</v>
       </c>
       <c r="R6" t="n">
-        <v>6706716.233959051</v>
+        <v>6706757.647421388</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111525235</v>
+        <v>111525233</v>
       </c>
       <c r="B7" t="n">
         <v>77515</v>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>404485.2245768273</v>
+        <v>404540.9329893424</v>
       </c>
       <c r="R7" t="n">
-        <v>6706757.647421388</v>
+        <v>6706716.233959051</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 9573-2023.xlsx
+++ b/artfynd/A 9573-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111525238</v>
+        <v>111525223</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>78107</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>404495.4563026094</v>
+        <v>404637.0659126193</v>
       </c>
       <c r="R2" t="n">
-        <v>6706677.491168984</v>
+        <v>6706784.214121711</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111525226</v>
+        <v>111525235</v>
       </c>
       <c r="B4" t="n">
         <v>77515</v>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>404616.9589749529</v>
+        <v>404485.2245768273</v>
       </c>
       <c r="R4" t="n">
-        <v>6706770.937089294</v>
+        <v>6706757.647421388</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111525223</v>
+        <v>111525233</v>
       </c>
       <c r="B5" t="n">
-        <v>78107</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>404637.0659126193</v>
+        <v>404540.9329893424</v>
       </c>
       <c r="R5" t="n">
-        <v>6706784.214121711</v>
+        <v>6706716.233959051</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111525235</v>
+        <v>111525238</v>
       </c>
       <c r="B6" t="n">
         <v>77515</v>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>404485.2245768273</v>
+        <v>404495.4563026094</v>
       </c>
       <c r="R6" t="n">
-        <v>6706757.647421388</v>
+        <v>6706677.491168984</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111525233</v>
+        <v>111525226</v>
       </c>
       <c r="B7" t="n">
         <v>77515</v>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>404540.9329893424</v>
+        <v>404616.9589749529</v>
       </c>
       <c r="R7" t="n">
-        <v>6706716.233959051</v>
+        <v>6706770.937089294</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 9573-2023.xlsx
+++ b/artfynd/A 9573-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111525223</v>
+        <v>111525233</v>
       </c>
       <c r="B2" t="n">
-        <v>78107</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>404637.0659126193</v>
+        <v>404540.9329893424</v>
       </c>
       <c r="R2" t="n">
-        <v>6706784.214121711</v>
+        <v>6706716.233959051</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111525224</v>
+        <v>111525238</v>
       </c>
       <c r="B3" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>404619.9854206198</v>
+        <v>404495.4563026094</v>
       </c>
       <c r="R3" t="n">
-        <v>6706773.322858612</v>
+        <v>6706677.491168984</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111525233</v>
+        <v>111525226</v>
       </c>
       <c r="B5" t="n">
         <v>77515</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>404540.9329893424</v>
+        <v>404616.9589749529</v>
       </c>
       <c r="R5" t="n">
-        <v>6706716.233959051</v>
+        <v>6706770.937089294</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111525238</v>
+        <v>111525224</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>404495.4563026094</v>
+        <v>404619.9854206198</v>
       </c>
       <c r="R6" t="n">
-        <v>6706677.491168984</v>
+        <v>6706773.322858612</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111525226</v>
+        <v>111525223</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>78107</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>404616.9589749529</v>
+        <v>404637.0659126193</v>
       </c>
       <c r="R7" t="n">
-        <v>6706770.937089294</v>
+        <v>6706784.214121711</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 9573-2023.xlsx
+++ b/artfynd/A 9573-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111525233</v>
+        <v>111525235</v>
       </c>
       <c r="B2" t="n">
         <v>77515</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>404540.9329893424</v>
+        <v>404485.2245768273</v>
       </c>
       <c r="R2" t="n">
-        <v>6706716.233959051</v>
+        <v>6706757.647421388</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111525238</v>
+        <v>111525223</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>78107</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>404495.4563026094</v>
+        <v>404637.0659126193</v>
       </c>
       <c r="R3" t="n">
-        <v>6706677.491168984</v>
+        <v>6706784.214121711</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111525235</v>
+        <v>111525224</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>404485.2245768273</v>
+        <v>404619.9854206198</v>
       </c>
       <c r="R4" t="n">
-        <v>6706757.647421388</v>
+        <v>6706773.322858612</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111525226</v>
+        <v>111525233</v>
       </c>
       <c r="B5" t="n">
         <v>77515</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>404616.9589749529</v>
+        <v>404540.9329893424</v>
       </c>
       <c r="R5" t="n">
-        <v>6706770.937089294</v>
+        <v>6706716.233959051</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111525224</v>
+        <v>111525226</v>
       </c>
       <c r="B6" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>404619.9854206198</v>
+        <v>404616.9589749529</v>
       </c>
       <c r="R6" t="n">
-        <v>6706773.322858612</v>
+        <v>6706770.937089294</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111525223</v>
+        <v>111525238</v>
       </c>
       <c r="B7" t="n">
-        <v>78107</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>404637.0659126193</v>
+        <v>404495.4563026094</v>
       </c>
       <c r="R7" t="n">
-        <v>6706784.214121711</v>
+        <v>6706677.491168984</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 9573-2023.xlsx
+++ b/artfynd/A 9573-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY7"/>
+  <dimension ref="A1:AY15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1350,6 +1350,822 @@
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>112243565</v>
+      </c>
+      <c r="B8" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Väst Värsjön, Vrm</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>404459</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6706753</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Dick Östberg</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Dick Östberg</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112243563</v>
+      </c>
+      <c r="B9" t="n">
+        <v>89425</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>5442</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tallticka</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Porodaedalea pini</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Väst Värsjön, Vrm</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>404744</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6707084</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Dick Östberg</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Dick Östberg</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112243594</v>
+      </c>
+      <c r="B10" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Väst Värsjön, Vrm</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>404742</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6706992</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Dick Östberg</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Dick Östberg</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112243589</v>
+      </c>
+      <c r="B11" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Väst Värsjön, Vrm</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>404762</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6707097</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Dick Östberg</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Dick Östberg</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112243573</v>
+      </c>
+      <c r="B12" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Väst Värsjön, Vrm</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>404477</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6706766</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Dick Östberg</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Dick Östberg</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112243569</v>
+      </c>
+      <c r="B13" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Väst Värsjön, Vrm</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>404751</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6707073</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Dick Östberg</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Dick Östberg</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112243600</v>
+      </c>
+      <c r="B14" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Väst Värsjön, Vrm</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>404725</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6707036</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Dick Östberg</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Dick Östberg</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112243588</v>
+      </c>
+      <c r="B15" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Väst Värsjön, Vrm</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>404452</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6706739</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Dick Östberg</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Dick Östberg</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 9573-2023.xlsx
+++ b/artfynd/A 9573-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111525235</v>
+        <v>112243589</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -716,14 +716,14 @@
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Värsjön, väst, Vrm</t>
+          <t>Väst Värsjön, Vrm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>404485.2245768273</v>
+        <v>404762</v>
       </c>
       <c r="R2" t="n">
-        <v>6706757.647421388</v>
+        <v>6707097</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -753,19 +753,9 @@
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -780,22 +770,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111525223</v>
+        <v>112243563</v>
       </c>
       <c r="B3" t="n">
-        <v>78107</v>
+        <v>89559</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,34 +798,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6453</v>
+        <v>5442</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Värsjön, väst, Vrm</t>
+          <t>Väst Värsjön, Vrm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>404637.0659126193</v>
+        <v>404744</v>
       </c>
       <c r="R3" t="n">
-        <v>6706784.214121711</v>
+        <v>6707084</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -865,19 +855,9 @@
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -892,22 +872,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111525224</v>
+        <v>112243600</v>
       </c>
       <c r="B4" t="n">
-        <v>77268</v>
+        <v>77636</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,34 +900,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Värsjön, väst, Vrm</t>
+          <t>Väst Värsjön, Vrm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>404619.9854206198</v>
+        <v>404725</v>
       </c>
       <c r="R4" t="n">
-        <v>6706773.322858612</v>
+        <v>6707036</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -977,19 +957,9 @@
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1004,22 +974,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111525233</v>
+        <v>112243594</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1052,14 +1022,14 @@
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Värsjön, väst, Vrm</t>
+          <t>Väst Värsjön, Vrm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>404540.9329893424</v>
+        <v>404742</v>
       </c>
       <c r="R5" t="n">
-        <v>6706716.233959051</v>
+        <v>6706992</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1089,19 +1059,9 @@
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1116,22 +1076,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111525226</v>
+        <v>112243569</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1164,14 +1124,14 @@
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Värsjön, väst, Vrm</t>
+          <t>Väst Värsjön, Vrm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>404616.9589749529</v>
+        <v>404751</v>
       </c>
       <c r="R6" t="n">
-        <v>6706770.937089294</v>
+        <v>6707073</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1201,19 +1161,9 @@
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1228,19 +1178,19 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111525238</v>
+        <v>111525235</v>
       </c>
       <c r="B7" t="n">
         <v>77515</v>
@@ -1280,10 +1230,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>404495.4563026094</v>
+        <v>404485.2245768273</v>
       </c>
       <c r="R7" t="n">
-        <v>6706677.491168984</v>
+        <v>6706757.647421388</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,10 +1302,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112243565</v>
+        <v>111525233</v>
       </c>
       <c r="B8" t="n">
-        <v>90666</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,38 +1314,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Väst Värsjön, Vrm</t>
+          <t>Värsjön, väst, Vrm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>404459</v>
+        <v>404540.9329893424</v>
       </c>
       <c r="R8" t="n">
-        <v>6706753</v>
+        <v>6706716.233959051</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1425,9 +1375,19 @@
           <t>2023-07-27</t>
         </is>
       </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1442,22 +1402,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112243563</v>
+        <v>111525238</v>
       </c>
       <c r="B9" t="n">
-        <v>89425</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1470,34 +1430,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Väst Värsjön, Vrm</t>
+          <t>Värsjön, väst, Vrm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>404744</v>
+        <v>404495.4563026094</v>
       </c>
       <c r="R9" t="n">
-        <v>6707084</v>
+        <v>6706677.491168984</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1527,9 +1487,19 @@
           <t>2023-07-27</t>
         </is>
       </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1544,22 +1514,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112243594</v>
+        <v>112243588</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,10 +1566,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>404742</v>
+        <v>404452</v>
       </c>
       <c r="R10" t="n">
-        <v>6706992</v>
+        <v>6706739</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1658,10 +1628,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112243589</v>
+        <v>112243565</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>90800</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1670,25 +1640,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1698,10 +1668,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>404762</v>
+        <v>404459</v>
       </c>
       <c r="R11" t="n">
-        <v>6707097</v>
+        <v>6706753</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1763,7 +1733,7 @@
         <v>112243573</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1862,10 +1832,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112243569</v>
+        <v>111525223</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>78107</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1878,34 +1848,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Väst Värsjön, Vrm</t>
+          <t>Värsjön, väst, Vrm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>404751</v>
+        <v>404637.0659126193</v>
       </c>
       <c r="R13" t="n">
-        <v>6707073</v>
+        <v>6706784.214121711</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1935,9 +1905,19 @@
           <t>2023-07-27</t>
         </is>
       </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1952,22 +1932,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112243600</v>
+        <v>111525224</v>
       </c>
       <c r="B14" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1980,34 +1960,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Väst Värsjön, Vrm</t>
+          <t>Värsjön, väst, Vrm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>404725</v>
+        <v>404619.9854206198</v>
       </c>
       <c r="R14" t="n">
-        <v>6707036</v>
+        <v>6706773.322858612</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2037,9 +2017,19 @@
           <t>2023-07-27</t>
         </is>
       </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2054,19 +2044,19 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112243588</v>
+        <v>111525226</v>
       </c>
       <c r="B15" t="n">
         <v>77515</v>
@@ -2102,14 +2092,14 @@
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Väst Värsjön, Vrm</t>
+          <t>Värsjön, väst, Vrm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>404452</v>
+        <v>404616.9589749529</v>
       </c>
       <c r="R15" t="n">
-        <v>6706739</v>
+        <v>6706770.937089294</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2139,9 +2129,19 @@
           <t>2023-07-27</t>
         </is>
       </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2156,12 +2156,12 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>

--- a/artfynd/A 9573-2023.xlsx
+++ b/artfynd/A 9573-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112243589</v>
+        <v>112243569</v>
       </c>
       <c r="B2" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>404762</v>
+        <v>404751</v>
       </c>
       <c r="R2" t="n">
-        <v>6707097</v>
+        <v>6707073</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112243563</v>
+        <v>112243589</v>
       </c>
       <c r="B3" t="n">
-        <v>89559</v>
+        <v>77650</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,21 +798,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>404744</v>
+        <v>404762</v>
       </c>
       <c r="R3" t="n">
-        <v>6707084</v>
+        <v>6707097</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         <v>112243600</v>
       </c>
       <c r="B4" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -986,10 +986,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112243594</v>
+        <v>112243563</v>
       </c>
       <c r="B5" t="n">
-        <v>77636</v>
+        <v>89573</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1002,21 +1002,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>404742</v>
+        <v>404744</v>
       </c>
       <c r="R5" t="n">
-        <v>6706992</v>
+        <v>6707084</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1088,10 +1088,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112243569</v>
+        <v>112243594</v>
       </c>
       <c r="B6" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>404751</v>
+        <v>404742</v>
       </c>
       <c r="R6" t="n">
-        <v>6707073</v>
+        <v>6706992</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1526,10 +1526,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112243588</v>
+        <v>112243565</v>
       </c>
       <c r="B10" t="n">
-        <v>77636</v>
+        <v>90814</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1538,25 +1538,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1566,10 +1566,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>404452</v>
+        <v>404459</v>
       </c>
       <c r="R10" t="n">
-        <v>6706739</v>
+        <v>6706753</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1628,10 +1628,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112243565</v>
+        <v>112243588</v>
       </c>
       <c r="B11" t="n">
-        <v>90800</v>
+        <v>77650</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1640,25 +1640,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1668,10 +1668,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>404459</v>
+        <v>404452</v>
       </c>
       <c r="R11" t="n">
-        <v>6706753</v>
+        <v>6706739</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1733,7 +1733,7 @@
         <v>112243573</v>
       </c>
       <c r="B12" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>

--- a/artfynd/A 9573-2023.xlsx
+++ b/artfynd/A 9573-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112243569</v>
+        <v>111525235</v>
       </c>
       <c r="B2" t="n">
-        <v>77650</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -716,14 +716,14 @@
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Väst Värsjön, Vrm</t>
+          <t>Värsjön, väst, Vrm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>404751</v>
+        <v>404485.2245768273</v>
       </c>
       <c r="R2" t="n">
-        <v>6707073</v>
+        <v>6706757.647421388</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -753,9 +753,19 @@
           <t>2023-07-27</t>
         </is>
       </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -770,22 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112243589</v>
+        <v>111525223</v>
       </c>
       <c r="B3" t="n">
-        <v>77650</v>
+        <v>78107</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,34 +808,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Väst Värsjön, Vrm</t>
+          <t>Värsjön, väst, Vrm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>404762</v>
+        <v>404637.0659126193</v>
       </c>
       <c r="R3" t="n">
-        <v>6707097</v>
+        <v>6706784.214121711</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -855,9 +865,19 @@
           <t>2023-07-27</t>
         </is>
       </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -872,22 +892,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112243600</v>
+        <v>111525224</v>
       </c>
       <c r="B4" t="n">
-        <v>77650</v>
+        <v>77268</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -900,34 +920,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Väst Värsjön, Vrm</t>
+          <t>Värsjön, väst, Vrm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>404725</v>
+        <v>404619.9854206198</v>
       </c>
       <c r="R4" t="n">
-        <v>6707036</v>
+        <v>6706773.322858612</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -957,9 +977,19 @@
           <t>2023-07-27</t>
         </is>
       </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -974,22 +1004,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112243563</v>
+        <v>111525233</v>
       </c>
       <c r="B5" t="n">
-        <v>89573</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1002,34 +1032,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Väst Värsjön, Vrm</t>
+          <t>Värsjön, väst, Vrm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>404744</v>
+        <v>404540.9329893424</v>
       </c>
       <c r="R5" t="n">
-        <v>6707084</v>
+        <v>6706716.233959051</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1059,9 +1089,19 @@
           <t>2023-07-27</t>
         </is>
       </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1076,22 +1116,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112243594</v>
+        <v>111525226</v>
       </c>
       <c r="B6" t="n">
-        <v>77650</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1124,14 +1164,14 @@
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Väst Värsjön, Vrm</t>
+          <t>Värsjön, väst, Vrm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>404742</v>
+        <v>404616.9589749529</v>
       </c>
       <c r="R6" t="n">
-        <v>6706992</v>
+        <v>6706770.937089294</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1161,9 +1201,19 @@
           <t>2023-07-27</t>
         </is>
       </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1178,19 +1228,19 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Dick Östberg</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111525235</v>
+        <v>111525238</v>
       </c>
       <c r="B7" t="n">
         <v>77515</v>
@@ -1230,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>404485.2245768273</v>
+        <v>404495.4563026094</v>
       </c>
       <c r="R7" t="n">
-        <v>6706757.647421388</v>
+        <v>6706677.491168984</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1302,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111525233</v>
+        <v>112243594</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>77650</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1338,14 +1388,14 @@
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Värsjön, väst, Vrm</t>
+          <t>Väst Värsjön, Vrm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>404540.9329893424</v>
+        <v>404742</v>
       </c>
       <c r="R8" t="n">
-        <v>6706716.233959051</v>
+        <v>6706992</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1375,19 +1425,9 @@
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1402,22 +1442,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111525238</v>
+        <v>112243600</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>77650</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1450,14 +1490,14 @@
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Värsjön, väst, Vrm</t>
+          <t>Väst Värsjön, Vrm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>404495.4563026094</v>
+        <v>404725</v>
       </c>
       <c r="R9" t="n">
-        <v>6706677.491168984</v>
+        <v>6707036</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1487,19 +1527,9 @@
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1514,22 +1544,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112243565</v>
+        <v>112243569</v>
       </c>
       <c r="B10" t="n">
-        <v>90814</v>
+        <v>77650</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1538,25 +1568,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1566,10 +1596,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>404459</v>
+        <v>404751</v>
       </c>
       <c r="R10" t="n">
-        <v>6706753</v>
+        <v>6707073</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1628,7 +1658,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112243588</v>
+        <v>112243573</v>
       </c>
       <c r="B11" t="n">
         <v>77650</v>
@@ -1668,10 +1698,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>404452</v>
+        <v>404477</v>
       </c>
       <c r="R11" t="n">
-        <v>6706739</v>
+        <v>6706766</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1730,10 +1760,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112243573</v>
+        <v>112243565</v>
       </c>
       <c r="B12" t="n">
-        <v>77650</v>
+        <v>90814</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1742,25 +1772,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1770,10 +1800,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>404477</v>
+        <v>404459</v>
       </c>
       <c r="R12" t="n">
-        <v>6706766</v>
+        <v>6706753</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1832,10 +1862,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111525223</v>
+        <v>112243563</v>
       </c>
       <c r="B13" t="n">
-        <v>78107</v>
+        <v>89573</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1848,34 +1878,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6453</v>
+        <v>5442</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Värsjön, väst, Vrm</t>
+          <t>Väst Värsjön, Vrm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>404637.0659126193</v>
+        <v>404744</v>
       </c>
       <c r="R13" t="n">
-        <v>6706784.214121711</v>
+        <v>6707084</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1905,19 +1935,9 @@
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1932,22 +1952,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111525224</v>
+        <v>112243588</v>
       </c>
       <c r="B14" t="n">
-        <v>77268</v>
+        <v>77650</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1960,34 +1980,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Värsjön, väst, Vrm</t>
+          <t>Väst Värsjön, Vrm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>404619.9854206198</v>
+        <v>404452</v>
       </c>
       <c r="R14" t="n">
-        <v>6706773.322858612</v>
+        <v>6706739</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2017,19 +2037,9 @@
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2044,22 +2054,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111525226</v>
+        <v>112243589</v>
       </c>
       <c r="B15" t="n">
-        <v>77515</v>
+        <v>77650</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2092,14 +2102,14 @@
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Värsjön, väst, Vrm</t>
+          <t>Väst Värsjön, Vrm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>404616.9589749529</v>
+        <v>404762</v>
       </c>
       <c r="R15" t="n">
-        <v>6706770.937089294</v>
+        <v>6707097</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2129,19 +2139,9 @@
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2156,12 +2156,12 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Dick Östberg</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>

--- a/artfynd/A 9573-2023.xlsx
+++ b/artfynd/A 9573-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY15"/>
+  <dimension ref="A1:AY16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2166,6 +2166,108 @@
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112552453</v>
+      </c>
+      <c r="B16" t="n">
+        <v>77650</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Sydväst Skarptjärnen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>404648</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6706779</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Anders Boström</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Anders Boström</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
